--- a/contratos/contratos-2-2019.xlsx
+++ b/contratos/contratos-2-2019.xlsx
@@ -913,7 +913,7 @@
     <t>SILVA GRISELDA PATRICIA</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOURLOT NESTOR CONRADO</t>
@@ -973,7 +973,7 @@
     <t>GALARZA ALEJANDRO ANDRES</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>BOUJON HECTOR ORLANDO</t>
@@ -1051,7 +1051,7 @@
     <t>BENEDETTI MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>ACOSTA PAOLA ALEJANDRA</t>
@@ -1213,7 +1213,7 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1813,700 +1813,700 @@
     <t>7</t>
   </si>
   <si>
-    <t>9.120,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>27.500,00</t>
-  </si>
-  <si>
-    <t>303.800,00</t>
-  </si>
-  <si>
-    <t>40.440,00</t>
-  </si>
-  <si>
-    <t>670.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>1.165.134,45</t>
-  </si>
-  <si>
-    <t>390.917,40</t>
-  </si>
-  <si>
-    <t>425.224,80</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>5.001,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>68.192,00</t>
-  </si>
-  <si>
-    <t>253.383,56</t>
-  </si>
-  <si>
-    <t>48.800,05</t>
-  </si>
-  <si>
-    <t>7.905,00</t>
-  </si>
-  <si>
-    <t>573.559,27</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>134.227,50</t>
-  </si>
-  <si>
-    <t>1.497,50</t>
-  </si>
-  <si>
-    <t>12.610,00</t>
-  </si>
-  <si>
-    <t>98.070,00</t>
-  </si>
-  <si>
-    <t>57.658,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>12.017,04</t>
-  </si>
-  <si>
-    <t>58.695,35</t>
-  </si>
-  <si>
-    <t>735,00</t>
-  </si>
-  <si>
-    <t>56.796,51</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>41.050,00</t>
-  </si>
-  <si>
-    <t>10.690,00</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>206,74</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>3.330,00</t>
-  </si>
-  <si>
-    <t>290,64</t>
-  </si>
-  <si>
-    <t>78.850,78</t>
-  </si>
-  <si>
-    <t>18.768,52</t>
-  </si>
-  <si>
-    <t>1.344,31</t>
-  </si>
-  <si>
-    <t>16.400,00</t>
-  </si>
-  <si>
-    <t>1.143,36</t>
-  </si>
-  <si>
-    <t>2.079,00</t>
-  </si>
-  <si>
-    <t>10.948,08</t>
-  </si>
-  <si>
-    <t>32.468,67</t>
-  </si>
-  <si>
-    <t>1.160,00</t>
-  </si>
-  <si>
-    <t>9.378,00</t>
-  </si>
-  <si>
-    <t>723,30</t>
-  </si>
-  <si>
-    <t>1.012,00</t>
-  </si>
-  <si>
-    <t>8.750,00</t>
-  </si>
-  <si>
-    <t>999,00</t>
-  </si>
-  <si>
-    <t>43.740,00</t>
-  </si>
-  <si>
-    <t>6.714,65</t>
-  </si>
-  <si>
-    <t>13.440,00</t>
-  </si>
-  <si>
-    <t>17.007,64</t>
-  </si>
-  <si>
-    <t>12.653,20</t>
-  </si>
-  <si>
-    <t>206,90</t>
-  </si>
-  <si>
-    <t>248,72</t>
-  </si>
-  <si>
-    <t>91.579,80</t>
-  </si>
-  <si>
-    <t>43.255,08</t>
-  </si>
-  <si>
-    <t>12.860,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>13.687,28</t>
-  </si>
-  <si>
-    <t>10.363,33</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>116.200,00</t>
-  </si>
-  <si>
-    <t>10.920,00</t>
-  </si>
-  <si>
-    <t>61.000,00</t>
-  </si>
-  <si>
-    <t>17.050,00</t>
-  </si>
-  <si>
-    <t>57.500,00</t>
-  </si>
-  <si>
-    <t>605,00</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>3.230,00</t>
-  </si>
-  <si>
-    <t>19.230,00</t>
-  </si>
-  <si>
-    <t>18.340,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>118.500,00</t>
-  </si>
-  <si>
-    <t>52.700,00</t>
-  </si>
-  <si>
-    <t>10.190,00</t>
-  </si>
-  <si>
-    <t>10.080,00</t>
-  </si>
-  <si>
-    <t>1.277,50</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>2.330,00</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>5.603,00</t>
-  </si>
-  <si>
-    <t>9,60</t>
-  </si>
-  <si>
-    <t>170.174,76</t>
-  </si>
-  <si>
-    <t>110.603,40</t>
-  </si>
-  <si>
-    <t>127.784,54</t>
-  </si>
-  <si>
-    <t>128.503,08</t>
-  </si>
-  <si>
-    <t>69.798,27</t>
-  </si>
-  <si>
-    <t>590,64</t>
-  </si>
-  <si>
-    <t>602,12</t>
-  </si>
-  <si>
-    <t>12.442,00</t>
-  </si>
-  <si>
-    <t>2.846,00</t>
-  </si>
-  <si>
-    <t>18.880,00</t>
-  </si>
-  <si>
-    <t>47.300,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>15.700,00</t>
-  </si>
-  <si>
-    <t>26.280,00</t>
-  </si>
-  <si>
-    <t>4.297,00</t>
-  </si>
-  <si>
-    <t>18.215,00</t>
-  </si>
-  <si>
-    <t>9.300,12</t>
-  </si>
-  <si>
-    <t>33.934,03</t>
-  </si>
-  <si>
-    <t>3.288,00</t>
-  </si>
-  <si>
-    <t>1.654,00</t>
-  </si>
-  <si>
-    <t>27.121,80</t>
-  </si>
-  <si>
-    <t>14.716,00</t>
-  </si>
-  <si>
-    <t>11.910,00</t>
-  </si>
-  <si>
-    <t>9.680,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>120.300,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>95.240,00</t>
-  </si>
-  <si>
-    <t>179.000,00</t>
-  </si>
-  <si>
-    <t>20.650,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>8.925,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>446.000,00</t>
-  </si>
-  <si>
-    <t>215.000,00</t>
-  </si>
-  <si>
-    <t>1.925,00</t>
-  </si>
-  <si>
-    <t>77.000,00</t>
-  </si>
-  <si>
-    <t>93.729,74</t>
-  </si>
-  <si>
-    <t>5.700,04</t>
-  </si>
-  <si>
-    <t>7.350,00</t>
-  </si>
-  <si>
-    <t>19.494,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>10.000,25</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>41.733,20</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>41.278,55</t>
-  </si>
-  <si>
-    <t>34.720,00</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>17.750,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>11.870,00</t>
-  </si>
-  <si>
-    <t>2.569,70</t>
-  </si>
-  <si>
-    <t>10.955,00</t>
-  </si>
-  <si>
-    <t>5.950,00</t>
-  </si>
-  <si>
-    <t>21.297,00</t>
-  </si>
-  <si>
-    <t>10.960,00</t>
-  </si>
-  <si>
-    <t>6.972,32</t>
-  </si>
-  <si>
-    <t>1.216,38</t>
-  </si>
-  <si>
-    <t>32.600,00</t>
-  </si>
-  <si>
-    <t>40.425,00</t>
-  </si>
-  <si>
-    <t>4.477,00</t>
-  </si>
-  <si>
-    <t>7.360,00</t>
-  </si>
-  <si>
-    <t>1.508,00</t>
-  </si>
-  <si>
-    <t>4.096,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>5.445,00</t>
-  </si>
-  <si>
-    <t>2.544,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>172.530,00</t>
-  </si>
-  <si>
-    <t>9.945,00</t>
-  </si>
-  <si>
-    <t>7.871,06</t>
-  </si>
-  <si>
-    <t>7.348,98</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>81.000,00</t>
-  </si>
-  <si>
-    <t>345,90</t>
-  </si>
-  <si>
-    <t>141.750,00</t>
-  </si>
-  <si>
-    <t>15.028,79</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>965.187,30</t>
-  </si>
-  <si>
-    <t>470.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>4.570,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>212.500,00</t>
-  </si>
-  <si>
-    <t>2.053.039,79</t>
-  </si>
-  <si>
-    <t>271.100,00</t>
-  </si>
-  <si>
-    <t>390.500,00</t>
-  </si>
-  <si>
-    <t>111.000,00</t>
-  </si>
-  <si>
-    <t>330.400,00</t>
-  </si>
-  <si>
-    <t>445.000,00</t>
-  </si>
-  <si>
-    <t>286.300,00</t>
-  </si>
-  <si>
-    <t>425.000,00</t>
-  </si>
-  <si>
-    <t>337.000,00</t>
-  </si>
-  <si>
-    <t>402.500,00</t>
-  </si>
-  <si>
-    <t>777.700,00</t>
-  </si>
-  <si>
-    <t>593.300,00</t>
-  </si>
-  <si>
-    <t>600.000,00</t>
-  </si>
-  <si>
-    <t>548.570,41</t>
-  </si>
-  <si>
-    <t>20.040,00</t>
-  </si>
-  <si>
-    <t>232.000,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>89.840,00</t>
-  </si>
-  <si>
-    <t>4.866.865,52</t>
-  </si>
-  <si>
-    <t>70.500,00</t>
-  </si>
-  <si>
-    <t>499.160,00</t>
-  </si>
-  <si>
-    <t>208.752,00</t>
-  </si>
-  <si>
-    <t>150.102,50</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>89.400,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>11.799.999,90</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>195.000,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>20.442,50</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>14.900,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>85.300,00</t>
+    <t>9120.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>303800.00</t>
+  </si>
+  <si>
+    <t>40440.00</t>
+  </si>
+  <si>
+    <t>670000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>1165134.45</t>
+  </si>
+  <si>
+    <t>390917.40</t>
+  </si>
+  <si>
+    <t>425224.80</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>5001.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>68192.00</t>
+  </si>
+  <si>
+    <t>253383.56</t>
+  </si>
+  <si>
+    <t>48800.05</t>
+  </si>
+  <si>
+    <t>7905.00</t>
+  </si>
+  <si>
+    <t>573559.27</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>134227.50</t>
+  </si>
+  <si>
+    <t>1497.50</t>
+  </si>
+  <si>
+    <t>12610.00</t>
+  </si>
+  <si>
+    <t>98070.00</t>
+  </si>
+  <si>
+    <t>57658.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>12017.04</t>
+  </si>
+  <si>
+    <t>58695.35</t>
+  </si>
+  <si>
+    <t>735.00</t>
+  </si>
+  <si>
+    <t>56796.51</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>41050.00</t>
+  </si>
+  <si>
+    <t>10690.00</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>206.74</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>3330.00</t>
+  </si>
+  <si>
+    <t>290.64</t>
+  </si>
+  <si>
+    <t>78850.78</t>
+  </si>
+  <si>
+    <t>18768.52</t>
+  </si>
+  <si>
+    <t>1344.31</t>
+  </si>
+  <si>
+    <t>16400.00</t>
+  </si>
+  <si>
+    <t>1143.36</t>
+  </si>
+  <si>
+    <t>2079.00</t>
+  </si>
+  <si>
+    <t>10948.08</t>
+  </si>
+  <si>
+    <t>32468.67</t>
+  </si>
+  <si>
+    <t>1160.00</t>
+  </si>
+  <si>
+    <t>9378.00</t>
+  </si>
+  <si>
+    <t>723.30</t>
+  </si>
+  <si>
+    <t>1012.00</t>
+  </si>
+  <si>
+    <t>8750.00</t>
+  </si>
+  <si>
+    <t>999.00</t>
+  </si>
+  <si>
+    <t>43740.00</t>
+  </si>
+  <si>
+    <t>6714.65</t>
+  </si>
+  <si>
+    <t>13440.00</t>
+  </si>
+  <si>
+    <t>17007.64</t>
+  </si>
+  <si>
+    <t>12653.20</t>
+  </si>
+  <si>
+    <t>206.90</t>
+  </si>
+  <si>
+    <t>248.72</t>
+  </si>
+  <si>
+    <t>91579.80</t>
+  </si>
+  <si>
+    <t>43255.08</t>
+  </si>
+  <si>
+    <t>12860.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>13687.28</t>
+  </si>
+  <si>
+    <t>10363.33</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>116200.00</t>
+  </si>
+  <si>
+    <t>10920.00</t>
+  </si>
+  <si>
+    <t>61000.00</t>
+  </si>
+  <si>
+    <t>17050.00</t>
+  </si>
+  <si>
+    <t>57500.00</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>3230.00</t>
+  </si>
+  <si>
+    <t>19230.00</t>
+  </si>
+  <si>
+    <t>18340.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>118500.00</t>
+  </si>
+  <si>
+    <t>52700.00</t>
+  </si>
+  <si>
+    <t>10190.00</t>
+  </si>
+  <si>
+    <t>10080.00</t>
+  </si>
+  <si>
+    <t>1277.50</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>2330.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>5603.00</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t>170174.76</t>
+  </si>
+  <si>
+    <t>110603.40</t>
+  </si>
+  <si>
+    <t>127784.54</t>
+  </si>
+  <si>
+    <t>128503.08</t>
+  </si>
+  <si>
+    <t>69798.27</t>
+  </si>
+  <si>
+    <t>590.64</t>
+  </si>
+  <si>
+    <t>602.12</t>
+  </si>
+  <si>
+    <t>12442.00</t>
+  </si>
+  <si>
+    <t>2846.00</t>
+  </si>
+  <si>
+    <t>18880.00</t>
+  </si>
+  <si>
+    <t>47300.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>15700.00</t>
+  </si>
+  <si>
+    <t>26280.00</t>
+  </si>
+  <si>
+    <t>4297.00</t>
+  </si>
+  <si>
+    <t>18215.00</t>
+  </si>
+  <si>
+    <t>9300.12</t>
+  </si>
+  <si>
+    <t>33934.03</t>
+  </si>
+  <si>
+    <t>3288.00</t>
+  </si>
+  <si>
+    <t>1654.00</t>
+  </si>
+  <si>
+    <t>27121.80</t>
+  </si>
+  <si>
+    <t>14716.00</t>
+  </si>
+  <si>
+    <t>11910.00</t>
+  </si>
+  <si>
+    <t>9680.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>120300.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>95240.00</t>
+  </si>
+  <si>
+    <t>179000.00</t>
+  </si>
+  <si>
+    <t>20650.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>8925.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>446000.00</t>
+  </si>
+  <si>
+    <t>215000.00</t>
+  </si>
+  <si>
+    <t>1925.00</t>
+  </si>
+  <si>
+    <t>77000.00</t>
+  </si>
+  <si>
+    <t>93729.74</t>
+  </si>
+  <si>
+    <t>5700.04</t>
+  </si>
+  <si>
+    <t>7350.00</t>
+  </si>
+  <si>
+    <t>19494.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>10000.25</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>41733.20</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>41278.55</t>
+  </si>
+  <si>
+    <t>34720.00</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>17750.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>11870.00</t>
+  </si>
+  <si>
+    <t>2569.70</t>
+  </si>
+  <si>
+    <t>10955.00</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>21297.00</t>
+  </si>
+  <si>
+    <t>10960.00</t>
+  </si>
+  <si>
+    <t>6972.32</t>
+  </si>
+  <si>
+    <t>1216.38</t>
+  </si>
+  <si>
+    <t>32600.00</t>
+  </si>
+  <si>
+    <t>40425.00</t>
+  </si>
+  <si>
+    <t>4477.00</t>
+  </si>
+  <si>
+    <t>7360.00</t>
+  </si>
+  <si>
+    <t>1508.00</t>
+  </si>
+  <si>
+    <t>4096.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>5445.00</t>
+  </si>
+  <si>
+    <t>2544.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>172530.00</t>
+  </si>
+  <si>
+    <t>9945.00</t>
+  </si>
+  <si>
+    <t>7871.06</t>
+  </si>
+  <si>
+    <t>7348.98</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>81000.00</t>
+  </si>
+  <si>
+    <t>345.90</t>
+  </si>
+  <si>
+    <t>141750.00</t>
+  </si>
+  <si>
+    <t>15028.79</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>965187.30</t>
+  </si>
+  <si>
+    <t>470000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>4570.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>212500.00</t>
+  </si>
+  <si>
+    <t>2053039.79</t>
+  </si>
+  <si>
+    <t>271100.00</t>
+  </si>
+  <si>
+    <t>390500.00</t>
+  </si>
+  <si>
+    <t>111000.00</t>
+  </si>
+  <si>
+    <t>330400.00</t>
+  </si>
+  <si>
+    <t>445000.00</t>
+  </si>
+  <si>
+    <t>286300.00</t>
+  </si>
+  <si>
+    <t>425000.00</t>
+  </si>
+  <si>
+    <t>337000.00</t>
+  </si>
+  <si>
+    <t>402500.00</t>
+  </si>
+  <si>
+    <t>777700.00</t>
+  </si>
+  <si>
+    <t>593300.00</t>
+  </si>
+  <si>
+    <t>600000.00</t>
+  </si>
+  <si>
+    <t>548570.41</t>
+  </si>
+  <si>
+    <t>20040.00</t>
+  </si>
+  <si>
+    <t>232000.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>89840.00</t>
+  </si>
+  <si>
+    <t>4866865.52</t>
+  </si>
+  <si>
+    <t>70500.00</t>
+  </si>
+  <si>
+    <t>499160.00</t>
+  </si>
+  <si>
+    <t>208752.00</t>
+  </si>
+  <si>
+    <t>150102.50</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>89400.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>11799999.90</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>195000.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>20442.50</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>14900.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>85300.00</t>
   </si>
 </sst>
 </file>
